--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_11-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_11-55.xlsx
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>Friday, 16 January, 2026 11:55 AM</t>
@@ -868,38 +874,64 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="26.25" customHeight="1">
-      <c r="K12" s="10">
-        <v>294.36000000000001</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="11">
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c t="s" r="B12" s="7">
         <v>24</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c t="s" r="F13" s="12">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c t="s" r="H12" s="8">
         <v>25</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c t="s" r="I13" s="14">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
+        <v>20</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c t="s" r="N12" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="K13" s="10">
+        <v>314.36000000000001</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c t="s" r="A14" s="11">
         <v>26</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c t="s" r="F14" s="12">
+        <v>27</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c t="s" r="I14" s="14">
+        <v>28</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -931,10 +963,13 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:N14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
